--- a/SOLO.xlsx
+++ b/SOLO.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\musth\OneDrive\Desktop\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\super\OneDrive\Desktop\Uni\ENG4702\Course_Design_For_Accreditation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42896A16-41A9-4F6F-9E0E-F83D3FED5EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787B46BE-D053-4E2B-95F2-7CD76D2DE7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11112" yWindow="0" windowWidth="11988" windowHeight="12336" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SOLO Monash" sheetId="1" r:id="rId1"/>
     <sheet name="SOLO TfQLaU 2" sheetId="2" r:id="rId2"/>
     <sheet name="SOLO John Biggs" sheetId="3" r:id="rId3"/>
-    <sheet name="SOLO TfQLaU 1" sheetId="4" r:id="rId4"/>
+    <sheet name="SOLO CIU" sheetId="5" r:id="rId4"/>
+    <sheet name="SOLO TfQLaU 1" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="162">
   <si>
     <t>Prestructural</t>
   </si>
@@ -397,6 +398,123 @@
   </si>
   <si>
     <t>Relate</t>
+  </si>
+  <si>
+    <t>Arrange</t>
+  </si>
+  <si>
+    <t>Choose</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Recognize</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Transmit</t>
+  </si>
+  <si>
+    <t>Clarify</t>
+  </si>
+  <si>
+    <t>Express</t>
+  </si>
+  <si>
+    <t>Extend</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Revise</t>
+  </si>
+  <si>
+    <t>Rework</t>
+  </si>
+  <si>
+    <t>Solve</t>
+  </si>
+  <si>
+    <t>Symbolize</t>
+  </si>
+  <si>
+    <t>Analyze</t>
+  </si>
+  <si>
+    <t>Categorize</t>
+  </si>
+  <si>
+    <t>Characterize</t>
+  </si>
+  <si>
+    <t>Distinguish</t>
+  </si>
+  <si>
+    <t>Exemplify</t>
+  </si>
+  <si>
+    <t>Implement</t>
+  </si>
+  <si>
+    <t>Inquire</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>Observe</t>
+  </si>
+  <si>
+    <t>Perform</t>
+  </si>
+  <si>
+    <t>Summarize</t>
+  </si>
+  <si>
+    <t>Criticize</t>
+  </si>
+  <si>
+    <t>Develop</t>
+  </si>
+  <si>
+    <t>Elaborate</t>
+  </si>
+  <si>
+    <t>Generalize</t>
+  </si>
+  <si>
+    <t>Hypothesize</t>
+  </si>
+  <si>
+    <t>Imagine</t>
+  </si>
+  <si>
+    <t>Initiate</t>
+  </si>
+  <si>
+    <t>Judge</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Synthesize</t>
+  </si>
+  <si>
+    <t>Theorize</t>
+  </si>
+  <si>
+    <t>Validate</t>
+  </si>
+  <si>
+    <t>Visualize</t>
   </si>
 </sst>
 </file>
@@ -737,13 +855,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -760,7 +878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
@@ -774,7 +892,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
@@ -788,7 +906,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
@@ -802,7 +920,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
@@ -813,7 +931,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
@@ -824,7 +942,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C7" s="3" t="s">
         <v>23</v>
       </c>
@@ -835,7 +953,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C8" s="3" t="s">
         <v>26</v>
       </c>
@@ -846,7 +964,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C9" s="3" t="s">
         <v>29</v>
       </c>
@@ -857,7 +975,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D10" s="3" t="s">
         <v>32</v>
       </c>
@@ -865,7 +983,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D11" s="3" t="s">
         <v>34</v>
       </c>
@@ -873,7 +991,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D12" s="3" t="s">
         <v>36</v>
       </c>
@@ -881,7 +999,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D13" s="3" t="s">
         <v>38</v>
       </c>
@@ -889,7 +1007,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D14" s="3" t="s">
         <v>40</v>
       </c>
@@ -897,7 +1015,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D15" s="3" t="s">
         <v>42</v>
       </c>
@@ -905,7 +1023,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D16" s="3" t="s">
         <v>44</v>
       </c>
@@ -913,7 +1031,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D17" s="3" t="s">
         <v>46</v>
       </c>
@@ -921,7 +1039,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D18" s="3" t="s">
         <v>48</v>
       </c>
@@ -929,7 +1047,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D19" s="3" t="s">
         <v>50</v>
       </c>
@@ -937,7 +1055,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D20" s="3" t="s">
         <v>52</v>
       </c>
@@ -945,7 +1063,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D21" s="3" t="s">
         <v>54</v>
       </c>
@@ -953,7 +1071,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D22" s="3" t="s">
         <v>56</v>
       </c>
@@ -961,7 +1079,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D23" s="3" t="s">
         <v>58</v>
       </c>
@@ -969,37 +1087,37 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D24" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D25" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D26" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D27" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D28" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D29" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D30" s="3" t="s">
         <v>66</v>
       </c>
@@ -1014,12 +1132,12 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E25"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1036,7 +1154,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>67</v>
       </c>
@@ -1050,7 +1168,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1064,7 +1182,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>71</v>
       </c>
@@ -1078,7 +1196,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>74</v>
       </c>
@@ -1092,7 +1210,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1106,7 +1224,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>78</v>
       </c>
@@ -1120,7 +1238,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>82</v>
       </c>
@@ -1134,7 +1252,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>85</v>
       </c>
@@ -1148,7 +1266,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>89</v>
       </c>
@@ -1162,7 +1280,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>92</v>
       </c>
@@ -1176,7 +1294,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>93</v>
       </c>
@@ -1190,7 +1308,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>96</v>
       </c>
@@ -1204,7 +1322,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>100</v>
       </c>
@@ -1212,7 +1330,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>101</v>
       </c>
@@ -1220,7 +1338,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>103</v>
       </c>
@@ -1228,7 +1346,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>105</v>
       </c>
@@ -1236,7 +1354,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>107</v>
       </c>
@@ -1244,37 +1362,37 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D19" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D20" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D21" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D22" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D23" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D24" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D25" s="3" t="s">
         <v>113</v>
       </c>
@@ -1289,12 +1407,12 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E10"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1311,7 +1429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>114</v>
       </c>
@@ -1328,7 +1446,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>117</v>
       </c>
@@ -1345,7 +1463,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>118</v>
       </c>
@@ -1362,7 +1480,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>79</v>
       </c>
@@ -1373,7 +1491,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="C6" s="2" t="s">
         <v>120</v>
@@ -1385,7 +1503,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
         <v>121</v>
       </c>
@@ -1393,17 +1511,17 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D8" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D9" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D10" s="2" t="s">
         <v>122</v>
       </c>
@@ -1414,23 +1532,424 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6300686-F673-4488-B17F-9790F87F95EF}">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" t="s">
+        <v>141</v>
+      </c>
+      <c r="E16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" t="s">
+        <v>142</v>
+      </c>
+      <c r="E17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" t="s">
+        <v>144</v>
+      </c>
+      <c r="E20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83EB8696-C76C-4536-98FD-9B813EB70887}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" customWidth="1"/>
-    <col min="2" max="2" width="15.08984375" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1447,7 +1966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>118</v>
       </c>
@@ -1464,7 +1983,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1478,7 +1997,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>119</v>
       </c>
@@ -1489,7 +2008,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>79</v>
       </c>
@@ -1500,13 +2019,13 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="D6" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D7" s="3" t="s">
         <v>122</v>
       </c>
